--- a/Formatted-Volunteer-List.xlsx
+++ b/Formatted-Volunteer-List.xlsx
@@ -829,10 +829,10 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,11 +841,26 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor indexed="12"/>
+        <fgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -853,13 +868,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -872,21 +957,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="33.02734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="29.03515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="21.8203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.28515625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="3.7578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.53515625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="4.41015625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="4.41015625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.2109375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="4.63671875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="5.1875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="5.04296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="0.15625" customWidth="true"/>
+    <col min="2" max="2" width="0.390625" customWidth="true"/>
+    <col min="3" max="3" width="0.46875" customWidth="true"/>
+    <col min="4" max="4" width="0.78125" customWidth="true"/>
+    <col min="5" max="5" width="0.2734375" customWidth="true"/>
+    <col min="6" max="6" width="0.33203125" customWidth="true"/>
+    <col min="7" max="7" width="0.09765625" customWidth="true"/>
+    <col min="8" max="8" width="0.15625" customWidth="true"/>
+    <col min="9" max="9" width="0.33203125" customWidth="true"/>
+    <col min="10" max="10" width="0.09765625" customWidth="true"/>
+    <col min="11" max="11" width="0.09765625" customWidth="true"/>
+    <col min="12" max="12" width="0.1171875" customWidth="true"/>
+    <col min="13" max="13" width="0.1171875" customWidth="true"/>
+    <col min="14" max="14" width="0.1171875" customWidth="true"/>
+    <col min="15" max="15" width="0.1171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -937,50 +1022,52 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E3" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="J3" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="2"/>
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -989,50 +1076,52 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="J5" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="2"/>
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -1041,50 +1130,52 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E7" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="J7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="2"/>
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -1093,50 +1184,52 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E9" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="J9" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="2"/>
       <c r="C10" t="s">
         <v>39</v>
       </c>
@@ -1145,50 +1238,52 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="3">
         <v>46</v>
       </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="J11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" t="s" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="2"/>
       <c r="C12" t="s">
         <v>48</v>
       </c>
@@ -1197,50 +1292,52 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s" s="3">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="3">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E13" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="3">
         <v>51</v>
       </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="J13" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" t="s" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="2"/>
       <c r="C14" t="s">
         <v>52</v>
       </c>
@@ -1249,100 +1346,104 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s" s="3">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s" s="3">
         <v>57</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="N15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O15" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" s="2"/>
       <c r="C16" t="s">
         <v>60</v>
       </c>
       <c r="E16"/>
     </row>
     <row r="17">
-      <c r="B17" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="3">
         <v>63</v>
       </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="E17" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="J17" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L17" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="N17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="N17" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="2"/>
       <c r="C18" t="s">
         <v>66</v>
       </c>
@@ -1351,50 +1452,52 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s" s="3">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="3">
         <v>68</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="E19" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="J19" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L19" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="N19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="2"/>
       <c r="C20" t="s">
         <v>73</v>
       </c>
@@ -1403,50 +1506,52 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s" s="3">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="3">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="E21" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="J21" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s" s="3">
         <v>76</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="N21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O21" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" s="2"/>
       <c r="C22" t="s">
         <v>77</v>
       </c>
@@ -1455,50 +1560,52 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s" s="3">
         <v>78</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="3">
         <v>80</v>
       </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="E23" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" t="s" s="3">
         <v>81</v>
       </c>
-      <c r="J23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="J23" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="N23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="N23" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O23" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="2"/>
       <c r="C24" t="s">
         <v>83</v>
       </c>
@@ -1507,50 +1614,52 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s" s="3">
         <v>84</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="3">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="3">
         <v>86</v>
       </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="E25" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" t="s" s="3">
         <v>87</v>
       </c>
-      <c r="J25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="J25" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M25" t="s" s="3">
         <v>88</v>
       </c>
-      <c r="N25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="N25" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O25" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" s="2"/>
       <c r="C26" t="s">
         <v>89</v>
       </c>
@@ -1559,50 +1668,52 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s" s="3">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="3">
         <v>91</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="3">
         <v>86</v>
       </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="E27" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" t="s" s="3">
         <v>92</v>
       </c>
-      <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="J27" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s" s="3">
         <v>93</v>
       </c>
-      <c r="N27" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="N27" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O27" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" s="2"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
@@ -1611,50 +1722,52 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s" s="3">
         <v>95</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="3">
         <v>96</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="3">
         <v>97</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="3">
         <v>98</v>
       </c>
-      <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="F29" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s" s="3">
         <v>99</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" t="s" s="3">
         <v>100</v>
       </c>
-      <c r="J29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="J29" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K29" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L29" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s" s="3">
         <v>101</v>
       </c>
-      <c r="N29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="N29" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O29" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" s="2"/>
       <c r="C30" t="s">
         <v>102</v>
       </c>
@@ -1663,50 +1776,52 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s" s="3">
         <v>103</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="3">
         <v>104</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="3">
         <v>105</v>
       </c>
-      <c r="E31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="E31" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" t="s" s="3">
         <v>106</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="L31" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="L31" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M31" t="s" s="3">
         <v>101</v>
       </c>
-      <c r="N31" t="s">
-        <v>18</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="N31" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O31" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" s="2"/>
       <c r="C32" t="s">
         <v>108</v>
       </c>
@@ -1715,50 +1830,52 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s" s="3">
         <v>109</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="3">
         <v>110</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="3">
         <v>111</v>
       </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="E33" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s" s="3">
         <v>112</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" t="s" s="3">
         <v>113</v>
       </c>
-      <c r="J33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="J33" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K33" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L33" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M33" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="N33" t="s">
-        <v>18</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="N33" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O33" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34" s="2"/>
       <c r="C34" t="s">
         <v>114</v>
       </c>
@@ -1767,50 +1884,52 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s" s="3">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="3">
         <v>116</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E35" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s" s="3">
         <v>118</v>
       </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G35" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s" s="3">
         <v>119</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="J35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="J35" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K35" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="L35" t="s" s="3">
         <v>121</v>
       </c>
-      <c r="M35" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" t="s">
-        <v>18</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="M35" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="N35" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O35" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" s="2"/>
       <c r="C36" t="s">
         <v>122</v>
       </c>
@@ -1819,50 +1938,52 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s" s="3">
         <v>123</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="3">
         <v>116</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s" s="3">
         <v>118</v>
       </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s" s="3">
         <v>119</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="J37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="J37" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="M37" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" t="s">
-        <v>18</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="M37" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="N37" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O37" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" s="2"/>
       <c r="C38" t="s">
         <v>122</v>
       </c>
@@ -1871,50 +1992,52 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" t="s" s="3">
         <v>125</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="3">
         <v>116</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s" s="3">
         <v>118</v>
       </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s" s="3">
         <v>119</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="J39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="J39" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K39" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="L39" t="s" s="3">
         <v>126</v>
       </c>
-      <c r="M39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N39" t="s">
-        <v>18</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="M39" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="N39" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O39" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="40">
+      <c r="A40" s="2"/>
       <c r="C40" t="s">
         <v>122</v>
       </c>
@@ -1923,150 +2046,156 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s" s="3">
         <v>127</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="3">
         <v>116</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E41" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s" s="3">
         <v>118</v>
       </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s" s="3">
         <v>119</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="J41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" t="s">
-        <v>23</v>
-      </c>
-      <c r="L41" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="J41" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K41" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L41" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M41" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" t="s" s="3">
         <v>82</v>
       </c>
     </row>
     <row r="42">
+      <c r="A42" s="2"/>
       <c r="C42" t="s">
         <v>122</v>
       </c>
       <c r="E42"/>
     </row>
     <row r="43">
-      <c r="B43" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" t="s" s="3">
         <v>129</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="3">
         <v>116</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E43" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s" s="3">
         <v>118</v>
       </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s" s="3">
         <v>119</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="J43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="J43" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K43" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L43" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M43" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" t="s" s="3">
         <v>82</v>
       </c>
     </row>
     <row r="44">
+      <c r="A44" s="2"/>
       <c r="C44" t="s">
         <v>130</v>
       </c>
       <c r="E44"/>
     </row>
     <row r="45">
-      <c r="B45" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="3">
         <v>132</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="3">
         <v>133</v>
       </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="E45" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s" s="3">
         <v>112</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="J45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="J45" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K45" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L45" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M45" t="s" s="3">
         <v>135</v>
       </c>
-      <c r="N45" t="s">
-        <v>18</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="N45" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O45" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="46">
+      <c r="A46" s="2"/>
       <c r="C46" t="s">
         <v>136</v>
       </c>
@@ -2075,50 +2204,52 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" t="s" s="3">
         <v>137</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="3">
         <v>138</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="E47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E47" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" t="s" s="3">
         <v>141</v>
       </c>
-      <c r="J47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" t="s">
-        <v>23</v>
-      </c>
-      <c r="L47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="J47" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K47" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L47" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M47" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="N47" t="s">
-        <v>18</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="N47" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O47" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="48">
+      <c r="A48" s="2"/>
       <c r="C48" t="s">
         <v>142</v>
       </c>
@@ -2127,50 +2258,52 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" t="s" s="3">
         <v>143</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="3">
         <v>138</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E49" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" t="s" s="3">
         <v>144</v>
       </c>
-      <c r="J49" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" t="s">
-        <v>23</v>
-      </c>
-      <c r="L49" t="s">
-        <v>18</v>
-      </c>
-      <c r="M49" t="s">
+      <c r="J49" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K49" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L49" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M49" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="N49" t="s">
-        <v>18</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="N49" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O49" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="50">
+      <c r="A50" s="2"/>
       <c r="C50" t="s">
         <v>145</v>
       </c>
@@ -2179,50 +2312,52 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s" s="3">
         <v>146</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="3">
         <v>147</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="3">
         <v>148</v>
       </c>
-      <c r="E51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="E51" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s" s="3">
         <v>149</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" t="s" s="3">
         <v>150</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="K51" t="s">
-        <v>23</v>
-      </c>
-      <c r="L51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="K51" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L51" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M51" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" t="s" s="3">
         <v>151</v>
       </c>
     </row>
     <row r="52">
+      <c r="A52" s="2"/>
       <c r="C52" t="s">
         <v>152</v>
       </c>
@@ -2231,50 +2366,52 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" t="s" s="3">
         <v>153</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="3">
         <v>147</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="3">
         <v>154</v>
       </c>
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="E53" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s" s="3">
         <v>149</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" t="s" s="3">
         <v>150</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="K53" t="s">
-        <v>23</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="K53" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L53" t="s" s="3">
         <v>155</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" t="s" s="3">
         <v>151</v>
       </c>
     </row>
     <row r="54">
+      <c r="A54" s="2"/>
       <c r="C54" t="s">
         <v>152</v>
       </c>
@@ -2283,50 +2420,52 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s">
+      <c r="A55" s="2"/>
+      <c r="B55" t="s" s="3">
         <v>156</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="3">
         <v>147</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="3">
         <v>154</v>
       </c>
-      <c r="E55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="E55" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s" s="3">
         <v>149</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" t="s" s="3">
         <v>150</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="K55" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="K55" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L55" t="s" s="3">
         <v>157</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" t="s" s="3">
         <v>151</v>
       </c>
     </row>
     <row r="56">
+      <c r="A56" s="2"/>
       <c r="C56" t="s">
         <v>152</v>
       </c>
@@ -2335,50 +2474,52 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" t="s" s="3">
         <v>158</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="3">
         <v>159</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="s" s="3">
         <v>160</v>
       </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="E57" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" t="s" s="3">
         <v>161</v>
       </c>
-      <c r="J57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="J57" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K57" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="L57" t="s" s="3">
         <v>162</v>
       </c>
-      <c r="M57" t="s">
-        <v>18</v>
-      </c>
-      <c r="N57" t="s">
-        <v>18</v>
-      </c>
-      <c r="O57" t="s">
+      <c r="M57" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="N57" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O57" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="58">
+      <c r="A58" s="2"/>
       <c r="C58" t="s">
         <v>163</v>
       </c>
@@ -2387,50 +2528,52 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s">
+      <c r="A59" s="2"/>
+      <c r="B59" t="s" s="3">
         <v>164</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" t="s" s="3">
         <v>159</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="s" s="3">
         <v>160</v>
       </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="E59" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" t="s" s="3">
         <v>161</v>
       </c>
-      <c r="J59" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" t="s">
-        <v>23</v>
-      </c>
-      <c r="L59" t="s">
-        <v>18</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="J59" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K59" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L59" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M59" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" t="s" s="3">
         <v>128</v>
       </c>
     </row>
     <row r="60">
+      <c r="A60" s="2"/>
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -2439,50 +2582,52 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s">
+      <c r="A61" s="2"/>
+      <c r="B61" t="s" s="3">
         <v>165</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="3">
         <v>159</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="3">
         <v>160</v>
       </c>
-      <c r="E61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="E61" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" t="s" s="3">
         <v>166</v>
       </c>
-      <c r="J61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" t="s">
-        <v>23</v>
-      </c>
-      <c r="L61" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="J61" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K61" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L61" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M61" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O61" t="s" s="3">
         <v>128</v>
       </c>
     </row>
     <row r="62">
+      <c r="A62" s="2"/>
       <c r="C62" t="s">
         <v>167</v>
       </c>
@@ -2491,50 +2636,52 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s">
+      <c r="A63" s="2"/>
+      <c r="B63" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="s" s="3">
         <v>170</v>
       </c>
-      <c r="E63" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="E63" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s" s="3">
         <v>171</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" t="s" s="3">
         <v>172</v>
       </c>
-      <c r="J63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" t="s">
-        <v>23</v>
-      </c>
-      <c r="L63" t="s">
-        <v>18</v>
-      </c>
-      <c r="M63" t="s">
+      <c r="J63" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K63" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L63" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M63" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O63" t="s" s="3">
         <v>151</v>
       </c>
     </row>
     <row r="64">
+      <c r="A64" s="2"/>
       <c r="C64" t="s">
         <v>173</v>
       </c>
@@ -2543,50 +2690,52 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s">
+      <c r="A65" s="2"/>
+      <c r="B65" t="s" s="3">
         <v>174</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="s" s="3">
         <v>170</v>
       </c>
-      <c r="E65" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="E65" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s" s="3">
         <v>171</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" t="s" s="3">
         <v>175</v>
       </c>
-      <c r="J65" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" t="s">
-        <v>23</v>
-      </c>
-      <c r="L65" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="J65" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K65" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L65" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M65" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="N65" t="s">
-        <v>18</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="N65" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O65" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="66">
+      <c r="A66" s="2"/>
       <c r="C66" t="s">
         <v>176</v>
       </c>
@@ -2595,50 +2744,52 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s">
+      <c r="A67" s="2"/>
+      <c r="B67" t="s" s="3">
         <v>177</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="s" s="3">
         <v>170</v>
       </c>
-      <c r="E67" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="E67" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s" s="3">
         <v>171</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" t="s" s="3">
         <v>172</v>
       </c>
-      <c r="J67" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" t="s">
-        <v>23</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="J67" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K67" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L67" t="s" s="3">
         <v>155</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="N67" t="s">
-        <v>18</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="N67" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O67" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="68">
+      <c r="A68" s="2"/>
       <c r="C68" t="s">
         <v>173</v>
       </c>
@@ -2647,50 +2798,52 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s">
+      <c r="A69" s="2"/>
+      <c r="B69" t="s" s="3">
         <v>178</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="s" s="3">
         <v>170</v>
       </c>
-      <c r="E69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="E69" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s" s="3">
         <v>171</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" t="s" s="3">
         <v>172</v>
       </c>
-      <c r="J69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" t="s">
-        <v>23</v>
-      </c>
-      <c r="L69" t="s">
+      <c r="J69" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K69" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L69" t="s" s="3">
         <v>157</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="N69" t="s">
-        <v>18</v>
-      </c>
-      <c r="O69" t="s">
+      <c r="N69" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O69" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="70">
+      <c r="A70" s="2"/>
       <c r="C70" t="s">
         <v>173</v>
       </c>
@@ -2699,50 +2852,52 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" t="s" s="3">
         <v>179</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" t="s" s="3">
         <v>170</v>
       </c>
-      <c r="E71" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="E71" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s" s="3">
         <v>171</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" t="s" s="3">
         <v>172</v>
       </c>
-      <c r="J71" t="s">
-        <v>23</v>
-      </c>
-      <c r="K71" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71" t="s">
+      <c r="J71" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K71" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="L71" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="M71" t="s">
-        <v>18</v>
-      </c>
-      <c r="N71" t="s">
-        <v>18</v>
-      </c>
-      <c r="O71" t="s">
+      <c r="M71" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="N71" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O71" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="72">
+      <c r="A72" s="2"/>
       <c r="C72" t="s">
         <v>173</v>
       </c>
@@ -2751,50 +2906,52 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" t="s" s="3">
         <v>180</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" t="s" s="3">
         <v>181</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" t="s" s="3">
         <v>182</v>
       </c>
-      <c r="E73" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="E73" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F73" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" t="s" s="3">
         <v>183</v>
       </c>
-      <c r="J73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K73" t="s">
-        <v>23</v>
-      </c>
-      <c r="L73" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" t="s">
+      <c r="J73" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K73" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L73" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M73" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N73" t="s" s="3">
         <v>121</v>
       </c>
-      <c r="O73" t="s">
+      <c r="O73" t="s" s="3">
         <v>151</v>
       </c>
     </row>
     <row r="74">
+      <c r="A74" s="2"/>
       <c r="C74" t="s">
         <v>184</v>
       </c>
@@ -2803,50 +2960,52 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s">
+      <c r="A75" s="2"/>
+      <c r="B75" t="s" s="3">
         <v>185</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" t="s" s="3">
         <v>181</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="s" s="3">
         <v>182</v>
       </c>
-      <c r="E75" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="E75" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" t="s" s="3">
         <v>183</v>
       </c>
-      <c r="J75" t="s">
-        <v>23</v>
-      </c>
-      <c r="K75" t="s">
-        <v>23</v>
-      </c>
-      <c r="L75" t="s">
+      <c r="J75" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K75" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L75" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N75" t="s" s="3">
         <v>121</v>
       </c>
-      <c r="O75" t="s">
+      <c r="O75" t="s" s="3">
         <v>151</v>
       </c>
     </row>
     <row r="76">
+      <c r="A76" s="2"/>
       <c r="C76" t="s">
         <v>184</v>
       </c>
@@ -2855,50 +3014,52 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s">
+      <c r="A77" s="2"/>
+      <c r="B77" t="s" s="3">
         <v>186</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="3">
         <v>187</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="3">
         <v>188</v>
       </c>
-      <c r="E77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="E77" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H77" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" t="s" s="3">
         <v>189</v>
       </c>
-      <c r="J77" t="s">
-        <v>23</v>
-      </c>
-      <c r="K77" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="J77" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K77" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="L77" t="s" s="3">
         <v>190</v>
       </c>
-      <c r="M77" t="s">
-        <v>18</v>
-      </c>
-      <c r="N77" t="s">
-        <v>18</v>
-      </c>
-      <c r="O77" t="s">
+      <c r="M77" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="N77" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O77" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="78">
+      <c r="A78" s="2"/>
       <c r="C78" t="s">
         <v>191</v>
       </c>
@@ -2907,50 +3068,52 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s">
+      <c r="A79" s="2"/>
+      <c r="B79" t="s" s="3">
         <v>192</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" t="s" s="3">
         <v>187</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="s" s="3">
         <v>193</v>
       </c>
-      <c r="E79" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="E79" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F79" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" t="s" s="3">
         <v>189</v>
       </c>
-      <c r="J79" t="s">
-        <v>23</v>
-      </c>
-      <c r="K79" t="s">
-        <v>23</v>
-      </c>
-      <c r="L79" t="s">
-        <v>18</v>
-      </c>
-      <c r="M79" t="s">
+      <c r="J79" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K79" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L79" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M79" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="N79" t="s">
-        <v>18</v>
-      </c>
-      <c r="O79" t="s">
+      <c r="N79" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O79" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="80">
+      <c r="A80" s="2"/>
       <c r="C80" t="s">
         <v>191</v>
       </c>
@@ -2959,50 +3122,52 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s">
+      <c r="A81" s="2"/>
+      <c r="B81" t="s" s="3">
         <v>194</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" t="s" s="3">
         <v>187</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="s" s="3">
         <v>193</v>
       </c>
-      <c r="E81" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="E81" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F81" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" t="s" s="3">
         <v>195</v>
       </c>
-      <c r="J81" t="s">
-        <v>23</v>
-      </c>
-      <c r="K81" t="s">
-        <v>23</v>
-      </c>
-      <c r="L81" t="s">
-        <v>18</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="J81" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K81" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L81" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M81" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="N81" t="s">
-        <v>18</v>
-      </c>
-      <c r="O81" t="s">
+      <c r="N81" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O81" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="82">
+      <c r="A82" s="2"/>
       <c r="C82" t="s">
         <v>196</v>
       </c>
@@ -3011,50 +3176,52 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s">
+      <c r="A83" s="2"/>
+      <c r="B83" t="s" s="3">
         <v>197</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" t="s" s="3">
         <v>187</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="s" s="3">
         <v>193</v>
       </c>
-      <c r="E83" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="E83" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F83" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H83" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" t="s" s="3">
         <v>189</v>
       </c>
-      <c r="J83" t="s">
-        <v>23</v>
-      </c>
-      <c r="K83" t="s">
-        <v>23</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="J83" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K83" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L83" t="s" s="3">
         <v>88</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="N83" t="s">
-        <v>18</v>
-      </c>
-      <c r="O83" t="s">
+      <c r="N83" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O83" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="84">
+      <c r="A84" s="2"/>
       <c r="C84" t="s">
         <v>191</v>
       </c>
@@ -3063,50 +3230,52 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s">
+      <c r="A85" s="2"/>
+      <c r="B85" t="s" s="3">
         <v>198</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" t="s" s="3">
         <v>187</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" t="s" s="3">
         <v>193</v>
       </c>
-      <c r="E85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="E85" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F85" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" t="s" s="3">
         <v>189</v>
       </c>
-      <c r="J85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K85" t="s">
-        <v>23</v>
-      </c>
-      <c r="L85" t="s">
+      <c r="J85" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K85" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L85" t="s" s="3">
         <v>88</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="N85" t="s">
-        <v>18</v>
-      </c>
-      <c r="O85" t="s">
+      <c r="N85" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O85" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="86">
+      <c r="A86" s="2"/>
       <c r="C86" t="s">
         <v>191</v>
       </c>
@@ -3115,100 +3284,104 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s">
+      <c r="A87" s="2"/>
+      <c r="B87" t="s" s="3">
         <v>199</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" t="s" s="3">
         <v>200</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="s" s="3">
         <v>201</v>
       </c>
-      <c r="E87" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="E87" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F87" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s" s="3">
         <v>149</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" t="s" s="3">
         <v>202</v>
       </c>
-      <c r="J87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K87" t="s">
+      <c r="J87" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K87" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="L87" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" t="s">
+      <c r="L87" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M87" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N87" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O87" t="s" s="3">
         <v>203</v>
       </c>
     </row>
     <row r="88">
+      <c r="A88" s="2"/>
       <c r="C88" t="s">
         <v>204</v>
       </c>
       <c r="E88"/>
     </row>
     <row r="89">
-      <c r="B89" t="s">
+      <c r="A89" s="2"/>
+      <c r="B89" t="s" s="3">
         <v>205</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" t="s" s="3">
         <v>206</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="s" s="3">
         <v>207</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" t="s" s="3">
         <v>208</v>
       </c>
-      <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="F89" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H89" t="s" s="3">
         <v>209</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" t="s" s="3">
         <v>210</v>
       </c>
-      <c r="J89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K89" t="s">
+      <c r="J89" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K89" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="L89" t="s">
-        <v>18</v>
-      </c>
-      <c r="M89" t="s">
+      <c r="L89" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M89" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="N89" t="s">
-        <v>18</v>
-      </c>
-      <c r="O89" t="s">
+      <c r="N89" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O89" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="90">
+      <c r="A90" s="2"/>
       <c r="C90" t="s">
         <v>211</v>
       </c>
@@ -3217,50 +3390,52 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s">
+      <c r="A91" s="2"/>
+      <c r="B91" t="s" s="3">
         <v>213</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" t="s" s="3">
         <v>206</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" t="s" s="3">
         <v>207</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" t="s" s="3">
         <v>208</v>
       </c>
-      <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="F91" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s" s="3">
         <v>214</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" t="s" s="3">
         <v>215</v>
       </c>
-      <c r="J91" t="s">
-        <v>23</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="J91" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K91" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="L91" t="s">
-        <v>18</v>
-      </c>
-      <c r="M91" t="s">
+      <c r="L91" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M91" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="N91" t="s">
-        <v>18</v>
-      </c>
-      <c r="O91" t="s">
+      <c r="N91" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O91" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="92">
+      <c r="A92" s="2"/>
       <c r="C92" t="s">
         <v>216</v>
       </c>
@@ -3269,50 +3444,52 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s">
+      <c r="A93" s="2"/>
+      <c r="B93" t="s" s="3">
         <v>217</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" t="s" s="3">
         <v>218</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" t="s" s="3">
         <v>219</v>
       </c>
-      <c r="E93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="E93" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H93" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" t="s" s="3">
         <v>220</v>
       </c>
-      <c r="J93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K93" t="s">
-        <v>18</v>
-      </c>
-      <c r="L93" t="s">
+      <c r="J93" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K93" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="L93" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="M93" t="s">
-        <v>18</v>
-      </c>
-      <c r="N93" t="s">
-        <v>18</v>
-      </c>
-      <c r="O93" t="s">
+      <c r="M93" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="N93" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O93" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="94">
+      <c r="A94" s="2"/>
       <c r="C94" t="s">
         <v>221</v>
       </c>
@@ -3321,50 +3498,52 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s">
+      <c r="A95" s="2"/>
+      <c r="B95" t="s" s="3">
         <v>222</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" t="s" s="3">
         <v>218</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" t="s" s="3">
         <v>219</v>
       </c>
-      <c r="E95" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="E95" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" t="s" s="3">
         <v>220</v>
       </c>
-      <c r="J95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K95" t="s">
-        <v>23</v>
-      </c>
-      <c r="L95" t="s">
-        <v>18</v>
-      </c>
-      <c r="M95" t="s">
+      <c r="J95" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K95" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L95" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M95" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="N95" t="s">
+      <c r="N95" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="O95" t="s">
+      <c r="O95" t="s" s="3">
         <v>128</v>
       </c>
     </row>
     <row r="96">
+      <c r="A96" s="2"/>
       <c r="C96" t="s">
         <v>221</v>
       </c>
@@ -3373,50 +3552,52 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s">
+      <c r="A97" s="2"/>
+      <c r="B97" t="s" s="3">
         <v>223</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" t="s" s="3">
         <v>224</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" t="s" s="3">
         <v>225</v>
       </c>
-      <c r="E97" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="E97" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="G97" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" t="s" s="3">
         <v>226</v>
       </c>
-      <c r="J97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K97" t="s">
-        <v>18</v>
-      </c>
-      <c r="L97" t="s">
+      <c r="J97" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K97" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="L97" t="s" s="3">
         <v>227</v>
       </c>
-      <c r="M97" t="s">
-        <v>18</v>
-      </c>
-      <c r="N97" t="s">
-        <v>18</v>
-      </c>
-      <c r="O97" t="s">
+      <c r="M97" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="N97" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O97" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="98">
+      <c r="A98" s="2"/>
       <c r="C98" t="s">
         <v>228</v>
       </c>
@@ -3425,150 +3606,156 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s">
+      <c r="A99" s="2"/>
+      <c r="B99" t="s" s="3">
         <v>229</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" t="s" s="3">
         <v>224</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" t="s" s="3">
         <v>225</v>
       </c>
-      <c r="E99" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="E99" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="G99" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="G99" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" t="s" s="3">
         <v>226</v>
       </c>
-      <c r="J99" t="s">
-        <v>23</v>
-      </c>
-      <c r="K99" t="s">
-        <v>23</v>
-      </c>
-      <c r="L99" t="s">
-        <v>18</v>
-      </c>
-      <c r="M99" t="s">
+      <c r="J99" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K99" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L99" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M99" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="N99" t="s">
+      <c r="N99" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="O99" t="s">
+      <c r="O99" t="s" s="3">
         <v>121</v>
       </c>
     </row>
     <row r="100">
+      <c r="A100" s="2"/>
       <c r="C100" t="s">
         <v>228</v>
       </c>
       <c r="E100"/>
     </row>
     <row r="101">
-      <c r="B101" t="s">
+      <c r="A101" s="2"/>
+      <c r="B101" t="s" s="3">
         <v>230</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" t="s" s="3">
         <v>224</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" t="s" s="3">
         <v>225</v>
       </c>
-      <c r="E101" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="E101" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="G101" t="s">
-        <v>20</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="G101" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" t="s" s="3">
         <v>231</v>
       </c>
-      <c r="J101" t="s">
-        <v>23</v>
-      </c>
-      <c r="K101" t="s">
-        <v>23</v>
-      </c>
-      <c r="L101" t="s">
-        <v>18</v>
-      </c>
-      <c r="M101" t="s">
+      <c r="J101" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K101" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L101" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M101" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="N101" t="s">
+      <c r="N101" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="O101" t="s">
+      <c r="O101" t="s" s="3">
         <v>121</v>
       </c>
     </row>
     <row r="102">
+      <c r="A102" s="2"/>
       <c r="C102" t="s">
         <v>232</v>
       </c>
       <c r="E102"/>
     </row>
     <row r="103">
-      <c r="B103" t="s">
+      <c r="A103" s="2"/>
+      <c r="B103" t="s" s="3">
         <v>233</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" t="s" s="3">
         <v>234</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" t="s" s="3">
         <v>235</v>
       </c>
-      <c r="E103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="E103" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H103" t="s" s="3">
         <v>236</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" t="s" s="3">
         <v>237</v>
       </c>
-      <c r="J103" t="s">
-        <v>23</v>
-      </c>
-      <c r="K103" t="s">
-        <v>23</v>
-      </c>
-      <c r="L103" t="s">
-        <v>18</v>
-      </c>
-      <c r="M103" t="s">
-        <v>18</v>
-      </c>
-      <c r="N103" t="s">
-        <v>18</v>
-      </c>
-      <c r="O103" t="s">
+      <c r="J103" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K103" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L103" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M103" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="N103" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O103" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="104">
+      <c r="A104" s="2"/>
       <c r="C104" t="s">
         <v>238</v>
       </c>
@@ -3577,50 +3764,52 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s">
+      <c r="A105" s="2"/>
+      <c r="B105" t="s" s="3">
         <v>233</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" t="s" s="3">
         <v>234</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="s" s="3">
         <v>235</v>
       </c>
-      <c r="E105" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="E105" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F105" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s" s="3">
         <v>236</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" t="s" s="3">
         <v>237</v>
       </c>
-      <c r="J105" t="s">
-        <v>23</v>
-      </c>
-      <c r="K105" t="s">
-        <v>23</v>
-      </c>
-      <c r="L105" t="s">
-        <v>18</v>
-      </c>
-      <c r="M105" t="s">
+      <c r="J105" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K105" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L105" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M105" t="s" s="3">
         <v>239</v>
       </c>
-      <c r="N105" t="s">
+      <c r="N105" t="s" s="3">
         <v>240</v>
       </c>
-      <c r="O105" t="s">
+      <c r="O105" t="s" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="106">
+      <c r="A106" s="2"/>
       <c r="C106" t="s">
         <v>238</v>
       </c>
@@ -3629,50 +3818,52 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s">
+      <c r="A107" s="2"/>
+      <c r="B107" t="s" s="3">
         <v>241</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" t="s" s="3">
         <v>242</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" t="s" s="3">
         <v>243</v>
       </c>
-      <c r="E107" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="E107" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F107" t="s" s="3">
         <v>244</v>
       </c>
-      <c r="G107" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="G107" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s" s="3">
         <v>245</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" t="s" s="3">
         <v>246</v>
       </c>
-      <c r="J107" t="s">
-        <v>23</v>
-      </c>
-      <c r="K107" t="s">
-        <v>23</v>
-      </c>
-      <c r="L107" t="s">
-        <v>18</v>
-      </c>
-      <c r="M107" t="s">
+      <c r="J107" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K107" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L107" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M107" t="s" s="3">
         <v>247</v>
       </c>
-      <c r="N107" t="s">
-        <v>18</v>
-      </c>
-      <c r="O107" t="s">
+      <c r="N107" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O107" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="108">
+      <c r="A108" s="2"/>
       <c r="C108" t="s">
         <v>248</v>
       </c>
@@ -3681,50 +3872,52 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s">
+      <c r="A109" s="2"/>
+      <c r="B109" t="s" s="3">
         <v>241</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" t="s" s="3">
         <v>242</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" t="s" s="3">
         <v>243</v>
       </c>
-      <c r="E109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E109" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F109" t="s" s="3">
         <v>244</v>
       </c>
-      <c r="G109" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="G109" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H109" t="s" s="3">
         <v>245</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" t="s" s="3">
         <v>246</v>
       </c>
-      <c r="J109" t="s">
-        <v>23</v>
-      </c>
-      <c r="K109" t="s">
-        <v>23</v>
-      </c>
-      <c r="L109" t="s">
-        <v>18</v>
-      </c>
-      <c r="M109" t="s">
+      <c r="J109" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K109" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L109" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M109" t="s" s="3">
         <v>247</v>
       </c>
-      <c r="N109" t="s">
-        <v>18</v>
-      </c>
-      <c r="O109" t="s">
+      <c r="N109" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O109" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="110">
+      <c r="A110" s="2"/>
       <c r="C110" t="s">
         <v>248</v>
       </c>
@@ -3733,50 +3926,52 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s">
+      <c r="A111" s="2"/>
+      <c r="B111" t="s" s="3">
         <v>249</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" t="s" s="3">
         <v>250</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" t="s" s="3">
         <v>251</v>
       </c>
-      <c r="E111" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="E111" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F111" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H111" t="s" s="3">
         <v>112</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" t="s" s="3">
         <v>252</v>
       </c>
-      <c r="J111" t="s">
-        <v>23</v>
-      </c>
-      <c r="K111" t="s">
-        <v>23</v>
-      </c>
-      <c r="L111" t="s">
-        <v>18</v>
-      </c>
-      <c r="M111" t="s">
+      <c r="J111" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K111" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L111" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M111" t="s" s="3">
         <v>253</v>
       </c>
-      <c r="N111" t="s">
-        <v>18</v>
-      </c>
-      <c r="O111" t="s">
+      <c r="N111" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O111" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="112">
+      <c r="A112" s="2"/>
       <c r="C112" t="s">
         <v>254</v>
       </c>
@@ -3785,50 +3980,52 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s">
+      <c r="A113" s="2"/>
+      <c r="B113" t="s" s="3">
         <v>255</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" t="s" s="3">
         <v>256</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" t="s" s="3">
         <v>257</v>
       </c>
-      <c r="E113" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="E113" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F113" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="G113" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="G113" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" t="s" s="3">
         <v>258</v>
       </c>
-      <c r="J113" t="s">
-        <v>23</v>
-      </c>
-      <c r="K113" t="s">
-        <v>23</v>
-      </c>
-      <c r="L113" t="s">
-        <v>18</v>
-      </c>
-      <c r="M113" t="s">
+      <c r="J113" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K113" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L113" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M113" t="s" s="3">
         <v>259</v>
       </c>
-      <c r="N113" t="s">
-        <v>18</v>
-      </c>
-      <c r="O113" t="s">
+      <c r="N113" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O113" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="114">
+      <c r="A114" s="2"/>
       <c r="C114" t="s">
         <v>260</v>
       </c>
@@ -3837,50 +4034,52 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s">
+      <c r="A115" s="2"/>
+      <c r="B115" t="s" s="3">
         <v>261</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" t="s" s="3">
         <v>262</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" t="s" s="3">
         <v>263</v>
       </c>
-      <c r="E115" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>20</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="E115" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H115" t="s" s="3">
         <v>112</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" t="s" s="3">
         <v>264</v>
       </c>
-      <c r="J115" t="s">
-        <v>23</v>
-      </c>
-      <c r="K115" t="s">
-        <v>23</v>
-      </c>
-      <c r="L115" t="s">
-        <v>18</v>
-      </c>
-      <c r="M115" t="s">
+      <c r="J115" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K115" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="L115" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="M115" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="N115" t="s">
-        <v>18</v>
-      </c>
-      <c r="O115" t="s">
+      <c r="N115" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="O115" t="s" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="116">
+      <c r="A116" s="2"/>
       <c r="C116" t="s">
         <v>265</v>
       </c>

--- a/Formatted-Volunteer-List.xlsx
+++ b/Formatted-Volunteer-List.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="271">
+  <si>
+    <t>Eventbrite Signups FEBRUARY 18, 2019</t>
+  </si>
+  <si>
+    <t>P 1/4</t>
+  </si>
   <si>
     <t>Vol #</t>
   </si>
@@ -359,6 +365,9 @@
     <t>lbeakley@gha.org</t>
   </si>
   <si>
+    <t>P 2/4</t>
+  </si>
+  <si>
     <t>Julianna</t>
   </si>
   <si>
@@ -545,6 +554,9 @@
     <t>joshbaronson@yahoo.com</t>
   </si>
   <si>
+    <t>P 3/4</t>
+  </si>
+  <si>
     <t>Anna Kate</t>
   </si>
   <si>
@@ -699,6 +711,9 @@
   </si>
   <si>
     <t>kristindgraham@gmail.com</t>
+  </si>
+  <si>
+    <t>P 4/4</t>
   </si>
   <si>
     <t>Kristin</t>
@@ -951,1355 +966,1364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:O116"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="0.15625" customWidth="true"/>
-    <col min="2" max="2" width="0.390625" customWidth="true"/>
-    <col min="3" max="3" width="0.46875" customWidth="true"/>
-    <col min="4" max="4" width="0.78125" customWidth="true"/>
-    <col min="5" max="5" width="0.2734375" customWidth="true"/>
-    <col min="6" max="6" width="0.33203125" customWidth="true"/>
-    <col min="7" max="7" width="0.09765625" customWidth="true"/>
-    <col min="8" max="8" width="0.15625" customWidth="true"/>
-    <col min="9" max="9" width="0.33203125" customWidth="true"/>
-    <col min="10" max="10" width="0.09765625" customWidth="true"/>
-    <col min="11" max="11" width="0.09765625" customWidth="true"/>
-    <col min="12" max="12" width="0.1171875" customWidth="true"/>
-    <col min="13" max="13" width="0.1171875" customWidth="true"/>
-    <col min="14" max="14" width="0.1171875" customWidth="true"/>
-    <col min="15" max="15" width="0.1171875" customWidth="true"/>
+    <col min="1" max="1" width="6.609375" customWidth="true"/>
+    <col min="2" max="2" width="16.609375" customWidth="true"/>
+    <col min="3" max="3" width="19.94921875" customWidth="true"/>
+    <col min="4" max="4" width="33.28125" customWidth="true"/>
+    <col min="5" max="5" width="11.609375" customWidth="true"/>
+    <col min="6" max="6" width="14.109375" customWidth="true"/>
+    <col min="7" max="7" width="4.109375" customWidth="true"/>
+    <col min="8" max="8" width="6.609375" customWidth="true"/>
+    <col min="9" max="9" width="14.109375" customWidth="true"/>
+    <col min="10" max="10" width="4.109375" customWidth="true"/>
+    <col min="11" max="11" width="4.109375" customWidth="true"/>
+    <col min="12" max="12" width="4.94921875" customWidth="true"/>
+    <col min="13" max="13" width="4.94921875" customWidth="true"/>
+    <col min="14" max="14" width="4.94921875" customWidth="true"/>
+    <col min="15" max="15" width="4.94921875" customWidth="true"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" t="s" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2"/>
       <c r="B5" t="s" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O5" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2"/>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
       <c r="B7" t="s" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s" s="3">
-        <v>38</v>
-      </c>
       <c r="N9" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O9" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2"/>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2"/>
       <c r="B11" t="s" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N11" t="s" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O11" t="s" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2"/>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s" s="3">
         <v>49</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="I13" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="J13" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L13" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="M13" t="s" s="3">
-        <v>47</v>
-      </c>
       <c r="N13" t="s" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O13" t="s" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2"/>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2"/>
       <c r="B15" t="s" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s" s="3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N15" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O15" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2"/>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16"/>
     </row>
     <row r="17">
       <c r="A17" s="2"/>
       <c r="B17" t="s" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s" s="3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N17" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O17" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2"/>
       <c r="B19" t="s" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K19" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L19" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N19" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O19" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2"/>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2"/>
       <c r="B21" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="M21" t="s" s="3">
         <v>74</v>
       </c>
-      <c r="C21" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="I21" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="J21" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K21" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L21" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="M21" t="s" s="3">
-        <v>72</v>
-      </c>
       <c r="N21" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O21" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2"/>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2"/>
       <c r="B23" t="s" s="3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K23" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L23" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s" s="3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N23" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O23" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2"/>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2"/>
       <c r="B25" t="s" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s" s="3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K25" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M25" t="s" s="3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N25" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O25" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
       <c r="B27" t="s" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s" s="3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J27" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L27" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M27" t="s" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N27" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O27" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2"/>
       <c r="B29" t="s" s="3">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s" s="3">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s" s="3">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J29" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K29" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L29" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M29" t="s" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N29" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O29" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2"/>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s" s="3">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s" s="3">
+        <v>108</v>
+      </c>
+      <c r="J31" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="K31" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="L31" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s" s="3">
         <v>103</v>
       </c>
-      <c r="C31" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="E31" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H31" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="I31" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="J31" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="K31" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="L31" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="M31" t="s" s="3">
-        <v>101</v>
-      </c>
       <c r="N31" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O31" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2"/>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2"/>
       <c r="B33" t="s" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s" s="3">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I33" t="s" s="3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J33" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L33" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M33" t="s" s="3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N33" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O33" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2"/>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" t="s" s="3">
-        <v>115</v>
-      </c>
-      <c r="C35" t="s" s="3">
-        <v>116</v>
-      </c>
-      <c r="D35" t="s" s="3">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>117</v>
       </c>
-      <c r="E35" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="G35" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H35" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="I35" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="J35" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K35" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="L35" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="M35" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="N35" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="O35" t="s" s="3">
-        <v>18</v>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="C36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
+      <c r="A36" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="I36" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="K36" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="L36" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="M36" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="O36" t="s" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2"/>
       <c r="B37" t="s" s="3">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s" s="3">
+        <v>119</v>
+      </c>
+      <c r="D37" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="E37" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="G37" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="I37" t="s" s="3">
         <v>123</v>
       </c>
-      <c r="C37" t="s" s="3">
-        <v>116</v>
-      </c>
-      <c r="D37" t="s" s="3">
-        <v>117</v>
-      </c>
-      <c r="E37" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="G37" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H37" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="I37" t="s" s="3">
-        <v>120</v>
-      </c>
       <c r="J37" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K37" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L37" t="s" s="3">
         <v>124</v>
       </c>
       <c r="M37" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N37" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O37" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2"/>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2"/>
       <c r="B39" t="s" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H39" t="s" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I39" t="s" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J39" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L39" t="s" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M39" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N39" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O39" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2"/>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2"/>
       <c r="B41" t="s" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G41" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I41" t="s" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J41" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K41" t="s" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L41" t="s" s="3">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="M41" t="s" s="3">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N41" t="s" s="3">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="O41" t="s" s="3">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2"/>
       <c r="C42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42"/>
+        <v>125</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2"/>
       <c r="B43" t="s" s="3">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G43" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I43" t="s" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J43" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K43" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L43" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M43" t="s" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N43" t="s" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O43" t="s" s="3">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2"/>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E44"/>
     </row>
     <row r="45">
       <c r="A45" s="2"/>
       <c r="B45" t="s" s="3">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s" s="3">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="E45" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="G45" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="I45" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="J45" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="L45" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="M45" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="N45" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="C45" t="s" s="3">
-        <v>132</v>
-      </c>
-      <c r="D45" t="s" s="3">
-        <v>133</v>
-      </c>
-      <c r="E45" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s" s="3">
-        <v>112</v>
-      </c>
-      <c r="I45" t="s" s="3">
-        <v>134</v>
-      </c>
-      <c r="J45" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K45" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L45" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="M45" t="s" s="3">
-        <v>135</v>
-      </c>
-      <c r="N45" t="s" s="3">
-        <v>18</v>
-      </c>
       <c r="O45" t="s" s="3">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2"/>
       <c r="C46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E46"/>
     </row>
     <row r="47">
       <c r="A47" s="2"/>
       <c r="B47" t="s" s="3">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s" s="3">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s" s="3">
+        <v>136</v>
+      </c>
+      <c r="E47" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s" s="3">
+        <v>114</v>
+      </c>
+      <c r="I47" t="s" s="3">
         <v>137</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="J47" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="L47" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="M47" t="s" s="3">
         <v>138</v>
       </c>
-      <c r="D47" t="s" s="3">
-        <v>139</v>
-      </c>
-      <c r="E47" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F47" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="G47" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H47" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="I47" t="s" s="3">
-        <v>141</v>
-      </c>
-      <c r="J47" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K47" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L47" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="M47" t="s" s="3">
-        <v>42</v>
-      </c>
       <c r="N47" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O47" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2"/>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2"/>
       <c r="B49" t="s" s="3">
+        <v>140</v>
+      </c>
+      <c r="C49" t="s" s="3">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s" s="3">
+        <v>142</v>
+      </c>
+      <c r="E49" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s" s="3">
         <v>143</v>
       </c>
-      <c r="C49" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="D49" t="s" s="3">
-        <v>139</v>
-      </c>
-      <c r="E49" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s" s="3">
-        <v>140</v>
-      </c>
       <c r="G49" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s" s="3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I49" t="s" s="3">
         <v>144</v>
       </c>
       <c r="J49" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K49" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L49" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M49" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N49" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O49" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -2308,7 +2332,7 @@
         <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -2317,106 +2341,106 @@
         <v>146</v>
       </c>
       <c r="C51" t="s" s="3">
+        <v>141</v>
+      </c>
+      <c r="D51" t="s" s="3">
+        <v>142</v>
+      </c>
+      <c r="E51" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s" s="3">
+        <v>143</v>
+      </c>
+      <c r="G51" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="I51" t="s" s="3">
         <v>147</v>
       </c>
-      <c r="D51" t="s" s="3">
-        <v>148</v>
-      </c>
-      <c r="E51" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F51" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H51" t="s" s="3">
-        <v>149</v>
-      </c>
-      <c r="I51" t="s" s="3">
-        <v>150</v>
-      </c>
       <c r="J51" t="s" s="3">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="K51" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L51" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M51" t="s" s="3">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="N51" t="s" s="3">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="O51" t="s" s="3">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2"/>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2"/>
       <c r="B53" t="s" s="3">
+        <v>149</v>
+      </c>
+      <c r="C53" t="s" s="3">
+        <v>150</v>
+      </c>
+      <c r="D53" t="s" s="3">
+        <v>151</v>
+      </c>
+      <c r="E53" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s" s="3">
+        <v>152</v>
+      </c>
+      <c r="I53" t="s" s="3">
         <v>153</v>
       </c>
-      <c r="C53" t="s" s="3">
-        <v>147</v>
-      </c>
-      <c r="D53" t="s" s="3">
+      <c r="J53" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="K53" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="M53" t="s" s="3">
         <v>154</v>
       </c>
-      <c r="E53" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F53" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H53" t="s" s="3">
-        <v>149</v>
-      </c>
-      <c r="I53" t="s" s="3">
-        <v>150</v>
-      </c>
-      <c r="J53" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="K53" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L53" t="s" s="3">
-        <v>155</v>
-      </c>
-      <c r="M53" t="s" s="3">
-        <v>151</v>
-      </c>
       <c r="N53" t="s" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O53" t="s" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2"/>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -2425,214 +2449,214 @@
         <v>156</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="E55" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s" s="3">
+        <v>152</v>
+      </c>
+      <c r="I55" t="s" s="3">
+        <v>153</v>
+      </c>
+      <c r="J55" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="K55" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="L55" t="s" s="3">
+        <v>158</v>
+      </c>
+      <c r="M55" t="s" s="3">
         <v>154</v>
       </c>
-      <c r="E55" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F55" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H55" t="s" s="3">
-        <v>149</v>
-      </c>
-      <c r="I55" t="s" s="3">
-        <v>150</v>
-      </c>
-      <c r="J55" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="K55" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L55" t="s" s="3">
-        <v>157</v>
-      </c>
-      <c r="M55" t="s" s="3">
-        <v>151</v>
-      </c>
       <c r="N55" t="s" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O55" t="s" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2"/>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2"/>
       <c r="B57" t="s" s="3">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s" s="3">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s" s="3">
+        <v>152</v>
+      </c>
+      <c r="I57" t="s" s="3">
+        <v>153</v>
+      </c>
+      <c r="J57" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="K57" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="L57" t="s" s="3">
         <v>160</v>
       </c>
-      <c r="E57" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H57" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="I57" t="s" s="3">
-        <v>161</v>
-      </c>
-      <c r="J57" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K57" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="L57" t="s" s="3">
-        <v>162</v>
-      </c>
       <c r="M57" t="s" s="3">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="N57" t="s" s="3">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="O57" t="s" s="3">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2"/>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2"/>
       <c r="B59" t="s" s="3">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s" s="3">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="E59" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="I59" t="s" s="3">
         <v>164</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>159</v>
-      </c>
-      <c r="D59" t="s" s="3">
-        <v>160</v>
-      </c>
-      <c r="E59" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F59" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H59" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="I59" t="s" s="3">
-        <v>161</v>
-      </c>
       <c r="J59" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K59" t="s" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L59" t="s" s="3">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="M59" t="s" s="3">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="N59" t="s" s="3">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="O59" t="s" s="3">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2"/>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2"/>
       <c r="B61" t="s" s="3">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D61" t="s" s="3">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E61" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F61" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H61" t="s" s="3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I61" t="s" s="3">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J61" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K61" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L61" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M61" t="s" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N61" t="s" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O61" t="s" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2"/>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -2641,97 +2665,97 @@
         <v>168</v>
       </c>
       <c r="C63" t="s" s="3">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="E63" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="I63" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="D63" t="s" s="3">
-        <v>170</v>
-      </c>
-      <c r="E63" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F63" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H63" t="s" s="3">
-        <v>171</v>
-      </c>
-      <c r="I63" t="s" s="3">
-        <v>172</v>
-      </c>
       <c r="J63" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K63" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L63" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M63" t="s" s="3">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="N63" t="s" s="3">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="O63" t="s" s="3">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2"/>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2"/>
       <c r="B65" t="s" s="3">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s" s="3">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="E65" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s" s="3">
         <v>174</v>
-      </c>
-      <c r="C65" t="s" s="3">
-        <v>169</v>
-      </c>
-      <c r="D65" t="s" s="3">
-        <v>170</v>
-      </c>
-      <c r="E65" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F65" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H65" t="s" s="3">
-        <v>171</v>
       </c>
       <c r="I65" t="s" s="3">
         <v>175</v>
       </c>
       <c r="J65" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K65" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L65" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M65" t="s" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N65" t="s" s="3">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="O65" t="s" s="3">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66">
@@ -2740,7 +2764,7 @@
         <v>176</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -2749,484 +2773,485 @@
         <v>177</v>
       </c>
       <c r="C67" t="s" s="3">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D67" t="s" s="3">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E67" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F67" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H67" t="s" s="3">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I67" t="s" s="3">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J67" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K67" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L67" t="s" s="3">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="M67" t="s" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N67" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O67" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2"/>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" t="s" s="3">
-        <v>178</v>
-      </c>
-      <c r="C69" t="s" s="3">
-        <v>169</v>
-      </c>
-      <c r="D69" t="s" s="3">
-        <v>170</v>
-      </c>
-      <c r="E69" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F69" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H69" t="s" s="3">
-        <v>171</v>
-      </c>
-      <c r="I69" t="s" s="3">
-        <v>172</v>
-      </c>
-      <c r="J69" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K69" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L69" t="s" s="3">
-        <v>157</v>
-      </c>
-      <c r="M69" t="s" s="3">
-        <v>151</v>
-      </c>
-      <c r="N69" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="O69" t="s" s="3">
-        <v>18</v>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
-      <c r="C70" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" t="s">
-        <v>18</v>
+      <c r="A70" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H70" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="I70" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="J70" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="K70" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="L70" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="M70" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="N70" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="O70" t="s" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2"/>
       <c r="B71" t="s" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D71" t="s" s="3">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E71" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F71" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H71" t="s" s="3">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I71" t="s" s="3">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J71" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K71" t="s" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L71" t="s" s="3">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="M71" t="s" s="3">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="N71" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O71" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2"/>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2"/>
       <c r="B73" t="s" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s" s="3">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D73" t="s" s="3">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E73" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F73" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H73" t="s" s="3">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="I73" t="s" s="3">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J73" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K73" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L73" t="s" s="3">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="M73" t="s" s="3">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="N73" t="s" s="3">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="O73" t="s" s="3">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2"/>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2"/>
       <c r="B75" t="s" s="3">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s" s="3">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D75" t="s" s="3">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E75" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G75" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H75" t="s" s="3">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="I75" t="s" s="3">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J75" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K75" t="s" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L75" t="s" s="3">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M75" t="s" s="3">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="N75" t="s" s="3">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="O75" t="s" s="3">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2"/>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2"/>
       <c r="B77" t="s" s="3">
+        <v>184</v>
+      </c>
+      <c r="C77" t="s" s="3">
+        <v>185</v>
+      </c>
+      <c r="D77" t="s" s="3">
         <v>186</v>
       </c>
-      <c r="C77" t="s" s="3">
+      <c r="E77" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="I77" t="s" s="3">
         <v>187</v>
       </c>
-      <c r="D77" t="s" s="3">
-        <v>188</v>
-      </c>
-      <c r="E77" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F77" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H77" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="I77" t="s" s="3">
-        <v>189</v>
-      </c>
       <c r="J77" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K77" t="s" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L77" t="s" s="3">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="M77" t="s" s="3">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="N77" t="s" s="3">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="O77" t="s" s="3">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2"/>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2"/>
       <c r="B79" t="s" s="3">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C79" t="s" s="3">
+        <v>185</v>
+      </c>
+      <c r="D79" t="s" s="3">
+        <v>186</v>
+      </c>
+      <c r="E79" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="I79" t="s" s="3">
         <v>187</v>
       </c>
-      <c r="D79" t="s" s="3">
-        <v>193</v>
-      </c>
-      <c r="E79" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F79" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H79" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="I79" t="s" s="3">
-        <v>189</v>
-      </c>
       <c r="J79" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K79" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L79" t="s" s="3">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="M79" t="s" s="3">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="N79" t="s" s="3">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="O79" t="s" s="3">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2"/>
       <c r="C80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2"/>
       <c r="B81" t="s" s="3">
+        <v>190</v>
+      </c>
+      <c r="C81" t="s" s="3">
+        <v>191</v>
+      </c>
+      <c r="D81" t="s" s="3">
+        <v>192</v>
+      </c>
+      <c r="E81" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="I81" t="s" s="3">
+        <v>193</v>
+      </c>
+      <c r="J81" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="K81" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="L81" t="s" s="3">
         <v>194</v>
       </c>
-      <c r="C81" t="s" s="3">
-        <v>187</v>
-      </c>
-      <c r="D81" t="s" s="3">
-        <v>193</v>
-      </c>
-      <c r="E81" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F81" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H81" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="I81" t="s" s="3">
-        <v>195</v>
-      </c>
-      <c r="J81" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K81" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L81" t="s" s="3">
-        <v>18</v>
-      </c>
       <c r="M81" t="s" s="3">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N81" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O81" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2"/>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2"/>
       <c r="B83" t="s" s="3">
+        <v>196</v>
+      </c>
+      <c r="C83" t="s" s="3">
+        <v>191</v>
+      </c>
+      <c r="D83" t="s" s="3">
         <v>197</v>
       </c>
-      <c r="C83" t="s" s="3">
-        <v>187</v>
-      </c>
-      <c r="D83" t="s" s="3">
+      <c r="E83" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="I83" t="s" s="3">
         <v>193</v>
       </c>
-      <c r="E83" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F83" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H83" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="I83" t="s" s="3">
-        <v>189</v>
-      </c>
       <c r="J83" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K83" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L83" t="s" s="3">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="M83" t="s" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N83" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O83" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2"/>
       <c r="C84" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -3235,471 +3260,473 @@
         <v>198</v>
       </c>
       <c r="C85" t="s" s="3">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D85" t="s" s="3">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E85" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F85" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G85" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H85" t="s" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I85" t="s" s="3">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="J85" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K85" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L85" t="s" s="3">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="M85" t="s" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N85" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O85" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2"/>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2"/>
       <c r="B87" t="s" s="3">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s" s="3">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D87" t="s" s="3">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E87" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F87" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G87" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H87" t="s" s="3">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="I87" t="s" s="3">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J87" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K87" t="s" s="3">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="L87" t="s" s="3">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="M87" t="s" s="3">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="N87" t="s" s="3">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="O87" t="s" s="3">
-        <v>203</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2"/>
       <c r="C88" t="s">
-        <v>204</v>
-      </c>
-      <c r="E88"/>
+        <v>195</v>
+      </c>
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2"/>
       <c r="B89" t="s" s="3">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s" s="3">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D89" t="s" s="3">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E89" t="s" s="3">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="F89" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G89" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H89" t="s" s="3">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="I89" t="s" s="3">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="J89" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K89" t="s" s="3">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="L89" t="s" s="3">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="M89" t="s" s="3">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="N89" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O89" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2"/>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E90" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2"/>
       <c r="B91" t="s" s="3">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s" s="3">
+        <v>204</v>
+      </c>
+      <c r="D91" t="s" s="3">
+        <v>205</v>
+      </c>
+      <c r="E91" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F91" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s" s="3">
+        <v>152</v>
+      </c>
+      <c r="I91" t="s" s="3">
         <v>206</v>
       </c>
-      <c r="D91" t="s" s="3">
+      <c r="J91" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="K91" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="L91" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="M91" t="s" s="3">
+        <v>131</v>
+      </c>
+      <c r="N91" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="O91" t="s" s="3">
         <v>207</v>
-      </c>
-      <c r="E91" t="s" s="3">
-        <v>208</v>
-      </c>
-      <c r="F91" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H91" t="s" s="3">
-        <v>214</v>
-      </c>
-      <c r="I91" t="s" s="3">
-        <v>215</v>
-      </c>
-      <c r="J91" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K91" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="L91" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="M91" t="s" s="3">
-        <v>128</v>
-      </c>
-      <c r="N91" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="O91" t="s" s="3">
-        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2"/>
       <c r="C92" t="s">
-        <v>216</v>
-      </c>
-      <c r="E92" t="s">
-        <v>18</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E92"/>
     </row>
     <row r="93">
       <c r="A93" s="2"/>
       <c r="B93" t="s" s="3">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C93" t="s" s="3">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D93" t="s" s="3">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E93" t="s" s="3">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="F93" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G93" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H93" t="s" s="3">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="I93" t="s" s="3">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J93" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K93" t="s" s="3">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="L93" t="s" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M93" t="s" s="3">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="N93" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O93" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2"/>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2"/>
       <c r="B95" t="s" s="3">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s" s="3">
+        <v>210</v>
+      </c>
+      <c r="D95" t="s" s="3">
+        <v>211</v>
+      </c>
+      <c r="E95" t="s" s="3">
+        <v>212</v>
+      </c>
+      <c r="F95" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s" s="3">
         <v>218</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="I95" t="s" s="3">
         <v>219</v>
       </c>
-      <c r="E95" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F95" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H95" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="I95" t="s" s="3">
-        <v>220</v>
-      </c>
       <c r="J95" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K95" t="s" s="3">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="L95" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M95" t="s" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N95" t="s" s="3">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="O95" t="s" s="3">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2"/>
       <c r="C96" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2"/>
       <c r="B97" t="s" s="3">
+        <v>221</v>
+      </c>
+      <c r="C97" t="s" s="3">
+        <v>222</v>
+      </c>
+      <c r="D97" t="s" s="3">
         <v>223</v>
       </c>
-      <c r="C97" t="s" s="3">
+      <c r="E97" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F97" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="I97" t="s" s="3">
         <v>224</v>
       </c>
-      <c r="D97" t="s" s="3">
-        <v>225</v>
-      </c>
-      <c r="E97" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F97" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="G97" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H97" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="I97" t="s" s="3">
-        <v>226</v>
-      </c>
       <c r="J97" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K97" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L97" t="s" s="3">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="M97" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N97" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O97" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2"/>
       <c r="C98" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2"/>
       <c r="B99" t="s" s="3">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C99" t="s" s="3">
+        <v>222</v>
+      </c>
+      <c r="D99" t="s" s="3">
+        <v>223</v>
+      </c>
+      <c r="E99" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="I99" t="s" s="3">
         <v>224</v>
       </c>
-      <c r="D99" t="s" s="3">
-        <v>225</v>
-      </c>
-      <c r="E99" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F99" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="G99" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H99" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="I99" t="s" s="3">
-        <v>226</v>
-      </c>
       <c r="J99" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K99" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L99" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M99" t="s" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N99" t="s" s="3">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="O99" t="s" s="3">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2"/>
       <c r="C100" t="s">
-        <v>228</v>
-      </c>
-      <c r="E100"/>
+        <v>225</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2"/>
       <c r="B101" t="s" s="3">
+        <v>227</v>
+      </c>
+      <c r="C101" t="s" s="3">
+        <v>228</v>
+      </c>
+      <c r="D101" t="s" s="3">
+        <v>229</v>
+      </c>
+      <c r="E101" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F101" t="s" s="3">
+        <v>143</v>
+      </c>
+      <c r="G101" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="I101" t="s" s="3">
         <v>230</v>
       </c>
-      <c r="C101" t="s" s="3">
-        <v>224</v>
-      </c>
-      <c r="D101" t="s" s="3">
-        <v>225</v>
-      </c>
-      <c r="E101" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F101" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="G101" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H101" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="I101" t="s" s="3">
+      <c r="J101" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="K101" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="L101" t="s" s="3">
         <v>231</v>
       </c>
-      <c r="J101" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K101" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L101" t="s" s="3">
-        <v>18</v>
-      </c>
       <c r="M101" t="s" s="3">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="N101" t="s" s="3">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="O101" t="s" s="3">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
@@ -3707,384 +3734,545 @@
       <c r="C102" t="s">
         <v>232</v>
       </c>
-      <c r="E102"/>
+      <c r="E102" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="2"/>
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
         <v>233</v>
       </c>
-      <c r="C103" t="s" s="3">
-        <v>234</v>
-      </c>
-      <c r="D103" t="s" s="3">
-        <v>235</v>
-      </c>
-      <c r="E103" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F103" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H103" t="s" s="3">
-        <v>236</v>
-      </c>
-      <c r="I103" t="s" s="3">
-        <v>237</v>
-      </c>
-      <c r="J103" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="K103" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L103" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="M103" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="N103" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="O103" t="s" s="3">
-        <v>18</v>
-      </c>
     </row>
     <row r="104">
-      <c r="A104" s="2"/>
-      <c r="C104" t="s">
-        <v>238</v>
-      </c>
-      <c r="E104" t="s">
-        <v>18</v>
+      <c r="A104" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="G104" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H104" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="I104" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="J104" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="K104" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="L104" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="M104" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="N104" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="O104" t="s" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2"/>
       <c r="B105" t="s" s="3">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C105" t="s" s="3">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D105" t="s" s="3">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E105" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F105" t="s" s="3">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="G105" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H105" t="s" s="3">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="I105" t="s" s="3">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J105" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K105" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L105" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M105" t="s" s="3">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="N105" t="s" s="3">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="O105" t="s" s="3">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2"/>
       <c r="C106" t="s">
-        <v>238</v>
-      </c>
-      <c r="E106" t="s">
-        <v>18</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E106"/>
     </row>
     <row r="107">
       <c r="A107" s="2"/>
       <c r="B107" t="s" s="3">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C107" t="s" s="3">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D107" t="s" s="3">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E107" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F107" t="s" s="3">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="G107" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H107" t="s" s="3">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="I107" t="s" s="3">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="J107" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K107" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L107" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M107" t="s" s="3">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="N107" t="s" s="3">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="O107" t="s" s="3">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2"/>
       <c r="C108" t="s">
-        <v>248</v>
-      </c>
-      <c r="E108" t="s">
-        <v>18</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E108"/>
     </row>
     <row r="109">
       <c r="A109" s="2"/>
       <c r="B109" t="s" s="3">
+        <v>238</v>
+      </c>
+      <c r="C109" t="s" s="3">
+        <v>239</v>
+      </c>
+      <c r="D109" t="s" s="3">
+        <v>240</v>
+      </c>
+      <c r="E109" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F109" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H109" t="s" s="3">
         <v>241</v>
       </c>
-      <c r="C109" t="s" s="3">
+      <c r="I109" t="s" s="3">
         <v>242</v>
       </c>
-      <c r="D109" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="E109" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F109" t="s" s="3">
-        <v>244</v>
-      </c>
-      <c r="G109" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="H109" t="s" s="3">
-        <v>245</v>
-      </c>
-      <c r="I109" t="s" s="3">
-        <v>246</v>
-      </c>
       <c r="J109" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K109" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L109" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M109" t="s" s="3">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="N109" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O109" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2"/>
       <c r="C110" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2"/>
       <c r="B111" t="s" s="3">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C111" t="s" s="3">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D111" t="s" s="3">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E111" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F111" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G111" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H111" t="s" s="3">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="I111" t="s" s="3">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="J111" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K111" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L111" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M111" t="s" s="3">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="N111" t="s" s="3">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="O111" t="s" s="3">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2"/>
       <c r="C112" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2"/>
       <c r="B113" t="s" s="3">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C113" t="s" s="3">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D113" t="s" s="3">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E113" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F113" t="s" s="3">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="G113" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H113" t="s" s="3">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="I113" t="s" s="3">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J113" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K113" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L113" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M113" t="s" s="3">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N113" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O113" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2"/>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2"/>
       <c r="B115" t="s" s="3">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C115" t="s" s="3">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D115" t="s" s="3">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E115" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F115" t="s" s="3">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="G115" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H115" t="s" s="3">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="I115" t="s" s="3">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="J115" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K115" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L115" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M115" t="s" s="3">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="N115" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O115" t="s" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2"/>
       <c r="C116" t="s">
+        <v>253</v>
+      </c>
+      <c r="E116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2"/>
+      <c r="B117" t="s" s="3">
+        <v>254</v>
+      </c>
+      <c r="C117" t="s" s="3">
+        <v>255</v>
+      </c>
+      <c r="D117" t="s" s="3">
+        <v>256</v>
+      </c>
+      <c r="E117" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F117" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H117" t="s" s="3">
+        <v>114</v>
+      </c>
+      <c r="I117" t="s" s="3">
+        <v>257</v>
+      </c>
+      <c r="J117" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="K117" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="L117" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="M117" t="s" s="3">
+        <v>258</v>
+      </c>
+      <c r="N117" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="O117" t="s" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2"/>
+      <c r="C118" t="s">
+        <v>259</v>
+      </c>
+      <c r="E118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2"/>
+      <c r="B119" t="s" s="3">
+        <v>260</v>
+      </c>
+      <c r="C119" t="s" s="3">
+        <v>261</v>
+      </c>
+      <c r="D119" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="E119" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F119" t="s" s="3">
+        <v>143</v>
+      </c>
+      <c r="G119" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H119" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="I119" t="s" s="3">
+        <v>263</v>
+      </c>
+      <c r="J119" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="K119" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="L119" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="M119" t="s" s="3">
+        <v>264</v>
+      </c>
+      <c r="N119" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="O119" t="s" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2"/>
+      <c r="C120" t="s">
         <v>265</v>
       </c>
-      <c r="E116" t="s">
-        <v>18</v>
+      <c r="E120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2"/>
+      <c r="B121" t="s" s="3">
+        <v>266</v>
+      </c>
+      <c r="C121" t="s" s="3">
+        <v>267</v>
+      </c>
+      <c r="D121" t="s" s="3">
+        <v>268</v>
+      </c>
+      <c r="E121" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F121" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H121" t="s" s="3">
+        <v>114</v>
+      </c>
+      <c r="I121" t="s" s="3">
+        <v>269</v>
+      </c>
+      <c r="J121" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="K121" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="L121" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="M121" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="N121" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="O121" t="s" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2"/>
+      <c r="C122" t="s">
+        <v>270</v>
+      </c>
+      <c r="E122" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
